--- a/麓城店日报表2025.5.2.xlsx
+++ b/麓城店日报表2025.5.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="20150" windowHeight="11480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="空表" sheetId="37" r:id="rId1"/>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="257">
   <si>
     <t>2025年5月日报表</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>程婷21（5089）</t>
-  </si>
-  <si>
-    <t>石观慧</t>
   </si>
   <si>
     <t>兰婷21（6919）</t>
@@ -1854,7 +1851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2137,20 +2134,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2482,21 +2475,21 @@
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.60833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.60909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1454545454545" style="1" customWidth="1"/>
     <col min="4" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28181818181818" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="45" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="22" width="7.425" style="1" customWidth="1"/>
-    <col min="23" max="25" width="10.425" style="1" customWidth="1"/>
-    <col min="26" max="27" width="7.21666666666667" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6916666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.99166666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.89166666666667" style="1" customWidth="1"/>
+    <col min="10" max="22" width="7.42727272727273" style="1" customWidth="1"/>
+    <col min="23" max="25" width="10.4272727272727" style="1" customWidth="1"/>
+    <col min="26" max="27" width="7.21818181818182" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6909090909091" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.99090909090909" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.89090909090909" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3820,7 +3813,7 @@
         <v>45778</v>
       </c>
       <c r="B35" s="58"/>
-      <c r="C35" s="83"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
       <c r="F35" s="58"/>
@@ -6097,29 +6090,29 @@
   <sheetPr/>
   <dimension ref="A1:AD112"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X3"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.60833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.60909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3818181818182" style="1" customWidth="1"/>
     <col min="4" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28181818181818" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="45" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="22" width="7.425" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.425" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.95" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.425" style="1" customWidth="1"/>
-    <col min="26" max="27" width="7.21666666666667" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.525" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.99166666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.89166666666667" style="1" customWidth="1"/>
+    <col min="10" max="22" width="7.42727272727273" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.4272727272727" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.9454545454545" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.4272727272727" style="1" customWidth="1"/>
+    <col min="26" max="27" width="7.21818181818182" style="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5272727272727" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.99090909090909" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.89090909090909" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6295,14 +6288,14 @@
       <c r="A4" s="8">
         <v>45778</v>
       </c>
-      <c r="B4" s="79">
+      <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="51" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="79">
+      <c r="E4" s="51">
         <v>1</v>
       </c>
       <c r="F4" s="9"/>
@@ -6348,10 +6341,10 @@
       <c r="A5" s="8">
         <v>45778</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="81"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
         <v>36</v>
@@ -6400,8 +6393,8 @@
       <c r="A6" s="8">
         <v>45778</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
         <v>5</v>
@@ -6500,10 +6493,10 @@
       <c r="A8" s="8">
         <v>45778</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="51">
         <v>3</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="51" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="9"/>
@@ -6555,8 +6548,8 @@
       <c r="A9" s="8">
         <v>45778</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
         <v>5</v>
@@ -6708,10 +6701,10 @@
       <c r="A12" s="8">
         <v>45778</v>
       </c>
-      <c r="B12" s="79">
+      <c r="B12" s="51">
         <v>6</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="51" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="9"/>
@@ -6761,8 +6754,8 @@
       <c r="A13" s="8">
         <v>45778</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
         <v>5</v>
@@ -6812,10 +6805,10 @@
       <c r="A14" s="8">
         <v>45778</v>
       </c>
-      <c r="B14" s="79">
+      <c r="B14" s="51">
         <v>7</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="9"/>
@@ -6869,10 +6862,10 @@
       <c r="A15" s="8">
         <v>45778</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="79"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="9" t="s">
         <v>6</v>
       </c>
@@ -6914,14 +6907,14 @@
       <c r="A16" s="8">
         <v>45778</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="51">
         <v>8</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="51" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="79">
+      <c r="E16" s="51">
         <v>1</v>
       </c>
       <c r="F16" s="9"/>
@@ -6965,10 +6958,10 @@
       <c r="A17" s="8">
         <v>45778</v>
       </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="81"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
         <v>36</v>
@@ -7280,15 +7273,15 @@
       <c r="A23" s="8">
         <v>45778</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="51">
         <v>14</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="51" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="79">
+      <c r="F23" s="51">
         <v>1</v>
       </c>
       <c r="G23" s="9"/>
@@ -7333,11 +7326,11 @@
       <c r="A24" s="8">
         <v>45778</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="80"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -7376,11 +7369,11 @@
       <c r="A25" s="8">
         <v>45778</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="81"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -7421,10 +7414,10 @@
       <c r="A26" s="8">
         <v>45778</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B26" s="51">
         <v>15</v>
       </c>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="51" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="9"/>
@@ -7472,8 +7465,8 @@
       <c r="A27" s="8">
         <v>45778</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
         <v>5</v>
@@ -7729,10 +7722,10 @@
       <c r="A32" s="8">
         <v>45778</v>
       </c>
-      <c r="B32" s="79">
+      <c r="B32" s="51">
         <v>20</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="51" t="s">
         <v>63</v>
       </c>
       <c r="D32" s="9"/>
@@ -7778,8 +7771,8 @@
       <c r="A33" s="8">
         <v>45778</v>
       </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
         <v>1</v>
@@ -7936,10 +7929,10 @@
       <c r="A36" s="8">
         <v>45778</v>
       </c>
-      <c r="B36" s="79">
+      <c r="B36" s="51">
         <v>23</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="51" t="s">
         <v>68</v>
       </c>
       <c r="D36" s="9"/>
@@ -7990,8 +7983,8 @@
       <c r="A37" s="8">
         <v>45778</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="9"/>
       <c r="E37" s="54" t="s">
         <v>69</v>
@@ -8039,15 +8032,15 @@
       <c r="A38" s="8">
         <v>45778</v>
       </c>
-      <c r="B38" s="79">
+      <c r="B38" s="51">
         <v>24</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="51" t="s">
         <v>71</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="79">
+      <c r="F38" s="51">
         <v>1</v>
       </c>
       <c r="G38" s="9"/>
@@ -8092,11 +8085,11 @@
       <c r="A39" s="8">
         <v>45778</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="81"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -8305,8 +8298,8 @@
       <c r="A43" s="8">
         <v>45778</v>
       </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="51" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="9"/>
@@ -8352,8 +8345,8 @@
       <c r="A44" s="8">
         <v>45778</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="54" t="s">
@@ -8402,7 +8395,7 @@
       <c r="B45" s="9">
         <v>28</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="79" t="s">
         <v>78</v>
       </c>
       <c r="D45" s="9"/>
@@ -8552,14 +8545,14 @@
       <c r="A48" s="8">
         <v>45778</v>
       </c>
-      <c r="B48" s="79">
+      <c r="B48" s="51">
         <v>31</v>
       </c>
-      <c r="C48" s="79" t="s">
+      <c r="C48" s="51" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="79">
+      <c r="E48" s="51">
         <v>1</v>
       </c>
       <c r="F48" s="9"/>
@@ -8605,10 +8598,10 @@
       <c r="A49" s="8">
         <v>45778</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="81"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
         <v>36</v>
@@ -8763,10 +8756,10 @@
       <c r="A52" s="8">
         <v>45778</v>
       </c>
-      <c r="B52" s="79">
+      <c r="B52" s="51">
         <v>34</v>
       </c>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="51" t="s">
         <v>86</v>
       </c>
       <c r="D52" s="9"/>
@@ -8814,8 +8807,8 @@
       <c r="A53" s="8">
         <v>45778</v>
       </c>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
         <v>5</v>
@@ -8914,10 +8907,10 @@
       <c r="A55" s="8">
         <v>45778</v>
       </c>
-      <c r="B55" s="79">
+      <c r="B55" s="51">
         <v>36</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="51" t="s">
         <v>89</v>
       </c>
       <c r="D55" s="9"/>
@@ -8963,8 +8956,8 @@
       <c r="A56" s="8">
         <v>45778</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
         <v>1</v>
@@ -9220,14 +9213,14 @@
       <c r="A61" s="8">
         <v>45778</v>
       </c>
-      <c r="B61" s="79">
+      <c r="B61" s="51">
         <v>41</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="79">
+      <c r="E61" s="51">
         <v>1</v>
       </c>
       <c r="F61" s="9"/>
@@ -9271,10 +9264,10 @@
       <c r="A62" s="8">
         <v>45778</v>
       </c>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="81"/>
+      <c r="E62" s="53"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9" t="s">
         <v>39</v>
@@ -9316,8 +9309,8 @@
       <c r="A63" s="8">
         <v>45778</v>
       </c>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
         <v>5</v>
@@ -9465,10 +9458,10 @@
       <c r="A66" s="8">
         <v>45778</v>
       </c>
-      <c r="B66" s="79">
+      <c r="B66" s="51">
         <v>44</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="51" t="s">
         <v>97</v>
       </c>
       <c r="D66" s="9"/>
@@ -9518,8 +9511,8 @@
       <c r="A67" s="8">
         <v>45778</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="81"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
         <v>1</v>
@@ -9620,10 +9613,10 @@
       <c r="A69" s="8">
         <v>45778</v>
       </c>
-      <c r="B69" s="79">
+      <c r="B69" s="51">
         <v>46</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="51" t="s">
         <v>99</v>
       </c>
       <c r="D69" s="9"/>
@@ -9671,8 +9664,8 @@
       <c r="A70" s="8">
         <v>45778</v>
       </c>
-      <c r="B70" s="81"/>
-      <c r="C70" s="81"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9" t="s">
         <v>5</v>
@@ -11070,10 +11063,10 @@
       <c r="A98" s="8">
         <v>45778</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="80">
         <v>74</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="80" t="s">
         <v>130</v>
       </c>
       <c r="D98" s="9"/>
@@ -11119,12 +11112,8 @@
       <c r="A99" s="8">
         <v>45778</v>
       </c>
-      <c r="B99" s="9">
-        <v>75</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="B99" s="81"/>
+      <c r="C99" s="81"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9">
@@ -11174,7 +11163,7 @@
         <v>76</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -11225,7 +11214,7 @@
         <v>77</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -11276,7 +11265,7 @@
         <v>78</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
@@ -11329,7 +11318,7 @@
         <v>79</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
@@ -11376,20 +11365,20 @@
       <c r="A104" s="8">
         <v>45778</v>
       </c>
-      <c r="B104" s="79">
+      <c r="B104" s="51">
         <v>80</v>
       </c>
-      <c r="C104" s="79" t="s">
-        <v>136</v>
+      <c r="C104" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="79">
+      <c r="F104" s="51">
         <v>1</v>
       </c>
       <c r="G104" s="9"/>
       <c r="H104" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I104" s="9">
         <v>8599</v>
@@ -11431,14 +11420,14 @@
       <c r="A105" s="8">
         <v>45778</v>
       </c>
-      <c r="B105" s="81"/>
-      <c r="C105" s="81"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="81"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="9"/>
       <c r="H105" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I105" s="9">
         <v>8599</v>
@@ -11484,7 +11473,7 @@
         <v>81</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
@@ -11522,7 +11511,7 @@
       <c r="Z106" s="11"/>
       <c r="AA106" s="9"/>
       <c r="AB106" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC106" s="11"/>
       <c r="AD106" s="18" t="s">
@@ -11836,7 +11825,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:AD111" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <mergeCells count="67">
+  <mergeCells count="69">
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -11862,6 +11851,7 @@
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B98:B99"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C6"/>
@@ -11881,6 +11871,7 @@
     <mergeCell ref="C61:C63"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C98:C99"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -11916,27 +11907,27 @@
   <sheetPr/>
   <dimension ref="A1:AD151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151:F151"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.60833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.60909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5181818181818" style="1" customWidth="1"/>
     <col min="4" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28181818181818" style="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="45" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="22" width="7.425" style="1" customWidth="1"/>
-    <col min="23" max="25" width="10.425" style="1" customWidth="1"/>
-    <col min="26" max="27" width="7.21666666666667" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.4916666666667" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.99166666666667" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.89166666666667" style="1" customWidth="1"/>
+    <col min="10" max="22" width="7.42727272727273" style="1" customWidth="1"/>
+    <col min="23" max="25" width="10.4272727272727" style="1" customWidth="1"/>
+    <col min="26" max="27" width="7.21818181818182" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.4909090909091" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.99090909090909" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.89090909090909" style="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -12116,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="51">
         <v>1</v>
@@ -12145,16 +12136,16 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="10">
-        <f>SUM(J4:W4)</f>
+        <f t="shared" ref="X4:X41" si="0">SUM(J4:W4)</f>
         <v>54</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z4" s="11"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AD4" s="18" t="s">
@@ -12192,11 +12183,11 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="10">
-        <f>SUM(J5:W5)</f>
+        <f t="shared" si="0"/>
         <v>277.2</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z5" s="11"/>
       <c r="AA5" s="9"/>
@@ -12241,11 +12232,11 @@
         <v>4920</v>
       </c>
       <c r="X6" s="10">
-        <f>SUM(J6:W6)</f>
+        <f t="shared" si="0"/>
         <v>5098.6</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z6" s="11"/>
       <c r="AA6" s="9">
@@ -12267,7 +12258,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -12294,11 +12285,11 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="10">
-        <f>SUM(J7:W7)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z7" s="11"/>
       <c r="AA7" s="9"/>
@@ -12341,11 +12332,11 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="10">
-        <f>SUM(J8:W8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="9"/>
@@ -12371,7 +12362,7 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -12392,11 +12383,11 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="10">
-        <f>SUM(J9:W9)</f>
+        <f t="shared" si="0"/>
         <v>398</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="9"/>
@@ -12412,7 +12403,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -12439,16 +12430,16 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="10">
-        <f>SUM(J10:W10)</f>
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z10" s="11"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC10" s="11"/>
       <c r="AD10" s="18" t="s">
@@ -12492,11 +12483,11 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="10">
-        <f>SUM(J11:W11)</f>
+        <f t="shared" si="0"/>
         <v>487</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z11" s="11"/>
       <c r="AA11" s="9"/>
@@ -12514,7 +12505,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -12543,11 +12534,11 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="10">
-        <f>SUM(J12:W12)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z12" s="11"/>
       <c r="AA12" s="9"/>
@@ -12563,15 +12554,15 @@
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>147</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>148</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -12592,16 +12583,16 @@
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="10">
-        <f>SUM(J13:W13)</f>
+        <f t="shared" si="0"/>
         <v>-240</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z13" s="11"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC13" s="11"/>
       <c r="AD13" s="18" t="s">
@@ -12615,12 +12606,12 @@
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
       <c r="D14" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -12641,16 +12632,16 @@
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="10">
-        <f>SUM(J14:W14)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z14" s="11"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC14" s="11"/>
       <c r="AD14" s="18" t="s">
@@ -12664,7 +12655,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
@@ -12686,7 +12677,7 @@
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="10">
-        <f>SUM(J15:W15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y15" s="9" t="s">
@@ -12708,7 +12699,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="51">
@@ -12741,7 +12732,7 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="10">
-        <f>SUM(J16:W16)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="Y16" s="9" t="s">
@@ -12790,7 +12781,7 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="10">
-        <f>SUM(J17:W17)</f>
+        <f t="shared" si="0"/>
         <v>569</v>
       </c>
       <c r="Y17" s="9" t="s">
@@ -12812,7 +12803,7 @@
       <c r="C18" s="53"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
@@ -12837,7 +12828,7 @@
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
       <c r="X18" s="10">
-        <f>SUM(J18:W18)</f>
+        <f t="shared" si="0"/>
         <v>-5</v>
       </c>
       <c r="Y18" s="9" t="s">
@@ -12846,7 +12837,7 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC18" s="11"/>
       <c r="AD18" s="18" t="s">
@@ -12861,7 +12852,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
@@ -12894,7 +12885,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="10">
-        <f>SUM(J19:W19)</f>
+        <f t="shared" si="0"/>
         <v>328</v>
       </c>
       <c r="Y19" s="9" t="s">
@@ -12916,7 +12907,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
@@ -12924,7 +12915,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -12949,7 +12940,7 @@
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="10">
-        <f>SUM(J20:W20)</f>
+        <f t="shared" si="0"/>
         <v>328</v>
       </c>
       <c r="Y20" s="9" t="s">
@@ -12971,7 +12962,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
@@ -13000,7 +12991,7 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="10">
-        <f>SUM(J21:W21)</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="Y21" s="9" t="s">
@@ -13022,7 +13013,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -13049,7 +13040,7 @@
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="10">
-        <f>SUM(J22:W22)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y22" s="9" t="s">
@@ -13102,7 +13093,7 @@
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="10">
-        <f>SUM(J23:W23)</f>
+        <f t="shared" si="0"/>
         <v>112.7</v>
       </c>
       <c r="Y23" s="9" t="s">
@@ -13151,7 +13142,7 @@
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="10">
-        <f>SUM(J24:W24)</f>
+        <f t="shared" si="0"/>
         <v>-360</v>
       </c>
       <c r="Y24" s="9" t="s">
@@ -13160,7 +13151,7 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC24" s="11"/>
       <c r="AD24" s="18" t="s">
@@ -13198,7 +13189,7 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="10">
-        <f>SUM(J25:W25)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="Y25" s="9" t="s">
@@ -13220,7 +13211,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -13247,7 +13238,7 @@
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="10">
-        <f>SUM(J26:W26)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="Y26" s="9" t="s">
@@ -13256,7 +13247,7 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC26" s="11"/>
       <c r="AD26" s="18" t="s">
@@ -13298,7 +13289,7 @@
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="10">
-        <f>SUM(J27:W27)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="Y27" s="9" t="s">
@@ -13320,7 +13311,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
@@ -13353,7 +13344,7 @@
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="10">
-        <f>SUM(J28:W28)</f>
+        <f t="shared" si="0"/>
         <v>240.7</v>
       </c>
       <c r="Y28" s="9" t="s">
@@ -13375,7 +13366,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -13406,7 +13397,7 @@
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="10">
-        <f>SUM(J29:W29)</f>
+        <f t="shared" si="0"/>
         <v>488</v>
       </c>
       <c r="Y29" s="9" t="s">
@@ -13459,7 +13450,7 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="10">
-        <f>SUM(J30:W30)</f>
+        <f t="shared" si="0"/>
         <v>546.3</v>
       </c>
       <c r="Y30" s="9" t="s">
@@ -13468,7 +13459,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AC30" s="11"/>
       <c r="AD30" s="18" t="s">
@@ -13516,7 +13507,7 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="10">
-        <f>SUM(J31:W31)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="Y31" s="9" t="s">
@@ -13561,7 +13552,7 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="10">
-        <f>SUM(J32:W32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Y32" s="9" t="s">
@@ -13604,7 +13595,7 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="10">
-        <f>SUM(J33:W33)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="Y33" s="9" t="s">
@@ -13626,7 +13617,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -13655,7 +13646,7 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="10">
-        <f>SUM(J34:W34)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="Y34" s="9" t="s">
@@ -13708,7 +13699,7 @@
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="10">
-        <f>SUM(J35:W35)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="Y35" s="9" t="s">
@@ -13730,7 +13721,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
@@ -13759,7 +13750,7 @@
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="10">
-        <f>SUM(J36:W36)</f>
+        <f t="shared" si="0"/>
         <v>368</v>
       </c>
       <c r="Y36" s="9" t="s">
@@ -13812,7 +13803,7 @@
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="10">
-        <f>SUM(J37:W37)</f>
+        <f t="shared" si="0"/>
         <v>292.4</v>
       </c>
       <c r="Y37" s="9" t="s">
@@ -13834,7 +13825,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9">
@@ -13863,7 +13854,7 @@
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="10">
-        <f>SUM(J38:W38)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Y38" s="9" t="s">
@@ -13885,11 +13876,11 @@
       <c r="C39" s="53"/>
       <c r="D39" s="9"/>
       <c r="E39" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
@@ -13910,7 +13901,7 @@
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="10">
-        <f>SUM(J39:W39)</f>
+        <f t="shared" si="0"/>
         <v>-108</v>
       </c>
       <c r="Y39" s="9" t="s">
@@ -13934,7 +13925,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9">
@@ -13967,7 +13958,7 @@
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="10">
-        <f>SUM(J40:W40)</f>
+        <f t="shared" si="0"/>
         <v>206</v>
       </c>
       <c r="Y40" s="9" t="s">
@@ -14012,7 +14003,7 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="10">
-        <f>SUM(J41:W41)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="Y41" s="9" t="s">
@@ -14061,7 +14052,7 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="10">
-        <f t="shared" ref="X42:X72" si="0">SUM(J42:W42)</f>
+        <f t="shared" ref="X42:X96" si="1">SUM(J42:W42)</f>
         <v>13</v>
       </c>
       <c r="Y42" s="9" t="s">
@@ -14070,7 +14061,7 @@
       <c r="Z42" s="11"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC42" s="11"/>
       <c r="AD42" s="18" t="s">
@@ -14116,7 +14107,7 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>291</v>
       </c>
       <c r="Y43" s="9" t="s">
@@ -14170,7 +14161,7 @@
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>679</v>
       </c>
       <c r="Y44" s="9" t="s">
@@ -14192,7 +14183,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
@@ -14200,7 +14191,7 @@
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
@@ -14223,7 +14214,7 @@
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="Y45" s="9" t="s">
@@ -14245,7 +14236,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -14272,7 +14263,7 @@
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Y46" s="9" t="s">
@@ -14325,7 +14316,7 @@
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="Y47" s="9" t="s">
@@ -14347,7 +14338,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="51">
@@ -14376,7 +14367,7 @@
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="Y48" s="9" t="s">
@@ -14421,7 +14412,7 @@
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="Y49" s="9" t="s">
@@ -14441,15 +14432,15 @@
       </c>
       <c r="B50" s="51"/>
       <c r="C50" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -14470,7 +14461,7 @@
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
       <c r="X50" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-240</v>
       </c>
       <c r="Y50" s="9" t="s">
@@ -14479,7 +14470,7 @@
       <c r="Z50" s="11"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC50" s="11"/>
       <c r="AD50" s="18" t="s">
@@ -14494,11 +14485,11 @@
       <c r="C51" s="53"/>
       <c r="D51" s="9"/>
       <c r="E51" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -14519,7 +14510,7 @@
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="Y51" s="9" t="s">
@@ -14528,7 +14519,7 @@
       <c r="Z51" s="11"/>
       <c r="AA51" s="9"/>
       <c r="AB51" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC51" s="11"/>
       <c r="AD51" s="18" t="s">
@@ -14543,7 +14534,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
@@ -14576,7 +14567,7 @@
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>989</v>
       </c>
       <c r="Y52" s="9" t="s">
@@ -14598,7 +14589,7 @@
       <c r="C53" s="53"/>
       <c r="D53" s="9"/>
       <c r="E53" s="54" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9" t="s">
@@ -14623,7 +14614,7 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-35</v>
       </c>
       <c r="Y53" s="9" t="s">
@@ -14632,7 +14623,7 @@
       <c r="Z53" s="11"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC53" s="11"/>
       <c r="AD53" s="18" t="s">
@@ -14647,7 +14638,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -14676,7 +14667,7 @@
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225.4</v>
       </c>
       <c r="Y54" s="9" t="s">
@@ -14696,11 +14687,11 @@
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9" t="s">
@@ -14725,7 +14716,7 @@
       <c r="V55" s="9"/>
       <c r="W55" s="9"/>
       <c r="X55" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-121</v>
       </c>
       <c r="Y55" s="9" t="s">
@@ -14734,7 +14725,7 @@
       <c r="Z55" s="11"/>
       <c r="AA55" s="9"/>
       <c r="AB55" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC55" s="11"/>
       <c r="AD55" s="18" t="s">
@@ -14749,7 +14740,7 @@
         <v>33</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
@@ -14787,7 +14778,7 @@
         <v>4920</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6407.4</v>
       </c>
       <c r="Y56" s="9" t="s">
@@ -14813,7 +14804,7 @@
         <v>34</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
@@ -14844,7 +14835,7 @@
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="Y57" s="9" t="s">
@@ -14866,7 +14857,7 @@
         <v>35</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
@@ -14899,7 +14890,7 @@
         <v>2200</v>
       </c>
       <c r="X58" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2322.7</v>
       </c>
       <c r="Y58" s="9" t="s">
@@ -14910,7 +14901,7 @@
         <v>4</v>
       </c>
       <c r="AB58" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC58" s="11"/>
       <c r="AD58" s="18" t="s">
@@ -14952,7 +14943,7 @@
       <c r="V59" s="9"/>
       <c r="W59" s="9"/>
       <c r="X59" s="10">
-        <f>SUM(J59:W59)</f>
+        <f t="shared" si="1"/>
         <v>353</v>
       </c>
       <c r="Y59" s="9" t="s">
@@ -14976,7 +14967,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
@@ -15007,7 +14998,7 @@
       <c r="V60" s="9"/>
       <c r="W60" s="9"/>
       <c r="X60" s="10">
-        <f>SUM(J60:W60)</f>
+        <f t="shared" si="1"/>
         <v>901.6</v>
       </c>
       <c r="Y60" s="9" t="s">
@@ -15016,7 +15007,7 @@
       <c r="Z60" s="11"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC60" s="11"/>
       <c r="AD60" s="18" t="s">
@@ -15031,7 +15022,7 @@
         <v>37</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="51">
         <v>1</v>
@@ -15064,7 +15055,7 @@
       </c>
       <c r="W61" s="9"/>
       <c r="X61" s="10">
-        <f>SUM(J61:W61)</f>
+        <f t="shared" si="1"/>
         <v>1450</v>
       </c>
       <c r="Y61" s="9" t="s">
@@ -15073,7 +15064,7 @@
       <c r="Z61" s="11"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC61" s="11"/>
       <c r="AD61" s="18" t="s">
@@ -15111,7 +15102,7 @@
       <c r="V62" s="9"/>
       <c r="W62" s="9"/>
       <c r="X62" s="10">
-        <f>SUM(J62:W62)</f>
+        <f t="shared" si="1"/>
         <v>258.9</v>
       </c>
       <c r="Y62" s="9" t="s">
@@ -15158,7 +15149,7 @@
       <c r="V63" s="9"/>
       <c r="W63" s="9"/>
       <c r="X63" s="10">
-        <f>SUM(J63:W63)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Y63" s="9" t="s">
@@ -15215,7 +15206,7 @@
       <c r="V64" s="9"/>
       <c r="W64" s="9"/>
       <c r="X64" s="10">
-        <f>SUM(J64:W64)</f>
+        <f t="shared" si="1"/>
         <v>1061.5</v>
       </c>
       <c r="Y64" s="9" t="s">
@@ -15237,7 +15228,7 @@
         <v>39</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="51">
@@ -15270,7 +15261,7 @@
       <c r="V65" s="9"/>
       <c r="W65" s="9"/>
       <c r="X65" s="10">
-        <f>SUM(J65:W65)</f>
+        <f t="shared" si="1"/>
         <v>251</v>
       </c>
       <c r="Y65" s="9" t="s">
@@ -15315,7 +15306,7 @@
       <c r="V66" s="9"/>
       <c r="W66" s="9"/>
       <c r="X66" s="10">
-        <f>SUM(J66:W66)</f>
+        <f t="shared" si="1"/>
         <v>468</v>
       </c>
       <c r="Y66" s="9" t="s">
@@ -15360,7 +15351,7 @@
       <c r="V67" s="9"/>
       <c r="W67" s="9"/>
       <c r="X67" s="10">
-        <f>SUM(J67:W67)</f>
+        <f t="shared" si="1"/>
         <v>333</v>
       </c>
       <c r="Y67" s="9" t="s">
@@ -15407,7 +15398,7 @@
       <c r="V68" s="9"/>
       <c r="W68" s="9"/>
       <c r="X68" s="10">
-        <f>SUM(J68:W68)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="Y68" s="9" t="s">
@@ -15429,7 +15420,7 @@
         <v>40</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="51">
@@ -15460,7 +15451,7 @@
       <c r="V69" s="9"/>
       <c r="W69" s="9"/>
       <c r="X69" s="10">
-        <f>SUM(J69:W69)</f>
+        <f t="shared" si="1"/>
         <v>1443</v>
       </c>
       <c r="Y69" s="9" t="s">
@@ -15505,7 +15496,7 @@
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="10">
-        <f>SUM(J70:W70)</f>
+        <f t="shared" si="1"/>
         <v>298</v>
       </c>
       <c r="Y70" s="9" t="s">
@@ -15554,7 +15545,7 @@
       <c r="V71" s="9"/>
       <c r="W71" s="9"/>
       <c r="X71" s="10">
-        <f>SUM(J71:W71)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Y71" s="9" t="s">
@@ -15576,7 +15567,7 @@
         <v>42</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -15605,7 +15596,7 @@
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
       <c r="X72" s="10">
-        <f>SUM(J72:W72)</f>
+        <f t="shared" si="1"/>
         <v>225.4</v>
       </c>
       <c r="Y72" s="9" t="s">
@@ -15654,7 +15645,7 @@
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
       <c r="X73" s="10">
-        <f>SUM(J73:W73)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y73" s="9" t="s">
@@ -15676,7 +15667,7 @@
         <v>44</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -15703,7 +15694,7 @@
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="10">
-        <f>SUM(J74:W74)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y74" s="9" t="s">
@@ -15752,7 +15743,7 @@
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="10">
-        <f>SUM(J75:W75)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="Y75" s="9" t="s">
@@ -15774,7 +15765,7 @@
         <v>46</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -15803,7 +15794,7 @@
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
       <c r="X76" s="10">
-        <f>SUM(J76:W76)</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="Y76" s="9" t="s">
@@ -15852,7 +15843,7 @@
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
       <c r="X77" s="10">
-        <f>SUM(J77:W77)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y77" s="9" t="s">
@@ -15874,7 +15865,7 @@
         <v>48</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -15901,7 +15892,7 @@
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="10">
-        <f>SUM(J78:W78)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y78" s="9" t="s">
@@ -15923,7 +15914,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -15952,7 +15943,7 @@
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="10">
-        <f>SUM(J79:W79)</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="Y79" s="9" t="s">
@@ -15995,7 +15986,7 @@
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="10">
-        <f>SUM(J80:W80)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="Y80" s="9" t="s">
@@ -16042,7 +16033,7 @@
       <c r="V81" s="9"/>
       <c r="W81" s="9"/>
       <c r="X81" s="10">
-        <f>SUM(J81:W81)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y81" s="9" t="s">
@@ -16091,7 +16082,7 @@
       <c r="V82" s="9"/>
       <c r="W82" s="9"/>
       <c r="X82" s="10">
-        <f>SUM(J82:W82)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="Y82" s="9" t="s">
@@ -16136,7 +16127,7 @@
       <c r="V83" s="9"/>
       <c r="W83" s="9"/>
       <c r="X83" s="10">
-        <f>SUM(J83:W83)</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="Y83" s="9" t="s">
@@ -16185,7 +16176,7 @@
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
       <c r="X84" s="10">
-        <f>SUM(J84:W84)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="Y84" s="9" t="s">
@@ -16243,7 +16234,7 @@
         <v>4920</v>
       </c>
       <c r="X85" s="10">
-        <f>SUM(J85:W85)</f>
+        <f t="shared" si="1"/>
         <v>8667.1</v>
       </c>
       <c r="Y85" s="9" t="s">
@@ -16269,7 +16260,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="51">
@@ -16298,7 +16289,7 @@
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
       <c r="X86" s="10">
-        <f>SUM(J86:W86)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="Y86" s="9" t="s">
@@ -16343,7 +16334,7 @@
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="10">
-        <f>SUM(J87:W87)</f>
+        <f t="shared" si="1"/>
         <v>1736</v>
       </c>
       <c r="Y87" s="9" t="s">
@@ -16398,7 +16389,7 @@
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
       <c r="X88" s="10">
-        <f>SUM(J88:W88)</f>
+        <f t="shared" si="1"/>
         <v>240.7</v>
       </c>
       <c r="Y88" s="9" t="s">
@@ -16407,7 +16398,7 @@
       <c r="Z88" s="11"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC88" s="11"/>
       <c r="AD88" s="18" t="s">
@@ -16449,7 +16440,7 @@
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="10">
-        <f>SUM(J89:W89)</f>
+        <f t="shared" si="1"/>
         <v>683</v>
       </c>
       <c r="Y89" s="9" t="s">
@@ -16479,7 +16470,7 @@
       </c>
       <c r="F90" s="9"/>
       <c r="G90" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -16502,7 +16493,7 @@
       <c r="V90" s="9"/>
       <c r="W90" s="9"/>
       <c r="X90" s="10">
-        <f>SUM(J90:W90)</f>
+        <f t="shared" si="1"/>
         <v>1238.1</v>
       </c>
       <c r="Y90" s="9" t="s">
@@ -16559,7 +16550,7 @@
       <c r="V91" s="9"/>
       <c r="W91" s="9"/>
       <c r="X91" s="10">
-        <f>SUM(J91:W91)</f>
+        <f t="shared" si="1"/>
         <v>632</v>
       </c>
       <c r="Y91" s="9" t="s">
@@ -16581,7 +16572,7 @@
         <v>58</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -16610,7 +16601,7 @@
       <c r="V92" s="9"/>
       <c r="W92" s="9"/>
       <c r="X92" s="10">
-        <f>SUM(J92:W92)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="Y92" s="9" t="s">
@@ -16632,7 +16623,7 @@
         <v>59</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -16661,7 +16652,7 @@
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
       <c r="X93" s="10">
-        <f>SUM(J93:W93)</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="Y93" s="9" t="s">
@@ -16683,7 +16674,7 @@
         <v>60</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -16712,7 +16703,7 @@
       <c r="V94" s="9"/>
       <c r="W94" s="9"/>
       <c r="X94" s="10">
-        <f>SUM(J94:W94)</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="Y94" s="9" t="s">
@@ -16734,7 +16725,7 @@
         <v>61</v>
       </c>
       <c r="C95" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D95" s="51">
         <v>1</v>
@@ -16767,7 +16758,7 @@
       </c>
       <c r="W95" s="9"/>
       <c r="X95" s="10">
-        <f>SUM(J95:W95)</f>
+        <f t="shared" si="1"/>
         <v>712</v>
       </c>
       <c r="Y95" s="9" t="s">
@@ -16776,7 +16767,7 @@
       <c r="Z95" s="11"/>
       <c r="AA95" s="9"/>
       <c r="AB95" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC95" s="11"/>
       <c r="AD95" s="18" t="s">
@@ -16816,7 +16807,7 @@
       <c r="V96" s="9"/>
       <c r="W96" s="9"/>
       <c r="X96" s="10">
-        <f>SUM(J96:W96)</f>
+        <f t="shared" si="1"/>
         <v>318</v>
       </c>
       <c r="Y96" s="9" t="s">
@@ -16838,7 +16829,7 @@
         <v>62</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
@@ -16873,7 +16864,7 @@
       <c r="V97" s="9"/>
       <c r="W97" s="9"/>
       <c r="X97" s="10">
-        <f t="shared" ref="X97:X108" si="1">SUM(J97:W97)</f>
+        <f t="shared" ref="X97:X108" si="2">SUM(J97:W97)</f>
         <v>1122.4</v>
       </c>
       <c r="Y97" s="9" t="s">
@@ -16895,7 +16886,7 @@
         <v>63</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
@@ -16926,7 +16917,7 @@
       <c r="V98" s="9"/>
       <c r="W98" s="9"/>
       <c r="X98" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>424</v>
       </c>
       <c r="Y98" s="9" t="s">
@@ -16948,7 +16939,7 @@
         <v>64</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
@@ -16956,7 +16947,7 @@
       </c>
       <c r="F99" s="9"/>
       <c r="G99" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -16981,7 +16972,7 @@
       <c r="V99" s="9"/>
       <c r="W99" s="9"/>
       <c r="X99" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3762.7</v>
       </c>
       <c r="Y99" s="9" t="s">
@@ -16990,7 +16981,7 @@
       <c r="Z99" s="11"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC99" s="11"/>
       <c r="AD99" s="18" t="s">
@@ -17005,7 +16996,7 @@
         <v>65</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9">
@@ -17038,7 +17029,7 @@
       <c r="V100" s="9"/>
       <c r="W100" s="9"/>
       <c r="X100" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>810.1</v>
       </c>
       <c r="Y100" s="9" t="s">
@@ -17060,7 +17051,7 @@
         <v>66</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
@@ -17087,7 +17078,7 @@
       <c r="V101" s="9"/>
       <c r="W101" s="9"/>
       <c r="X101" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>138.6</v>
       </c>
       <c r="Y101" s="9" t="s">
@@ -17109,7 +17100,7 @@
         <v>67</v>
       </c>
       <c r="C102" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="51">
@@ -17117,7 +17108,7 @@
       </c>
       <c r="F102" s="9"/>
       <c r="G102" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -17140,7 +17131,7 @@
       <c r="V102" s="9"/>
       <c r="W102" s="9"/>
       <c r="X102" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>313.4</v>
       </c>
       <c r="Y102" s="9" t="s">
@@ -17164,7 +17155,7 @@
       <c r="E103" s="53"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -17187,7 +17178,7 @@
       <c r="V103" s="9"/>
       <c r="W103" s="9"/>
       <c r="X103" s="10">
-        <f>SUM(J103:W103)</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="Y103" s="9" t="s">
@@ -17209,7 +17200,7 @@
         <v>68</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
@@ -17240,7 +17231,7 @@
       <c r="V104" s="9"/>
       <c r="W104" s="9"/>
       <c r="X104" s="10">
-        <f>SUM(J104:W104)</f>
+        <f t="shared" si="2"/>
         <v>387</v>
       </c>
       <c r="Y104" s="9" t="s">
@@ -17262,7 +17253,7 @@
         <v>69</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -17293,7 +17284,7 @@
       <c r="V105" s="9"/>
       <c r="W105" s="9"/>
       <c r="X105" s="10">
-        <f t="shared" ref="X105:X115" si="2">SUM(J105:W105)</f>
+        <f t="shared" ref="X105:X115" si="3">SUM(J105:W105)</f>
         <v>267</v>
       </c>
       <c r="Y105" s="9" t="s">
@@ -17342,7 +17333,7 @@
       <c r="V106" s="9"/>
       <c r="W106" s="9"/>
       <c r="X106" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>290</v>
       </c>
       <c r="Y106" s="9" t="s">
@@ -17364,7 +17355,7 @@
         <v>70</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -17397,7 +17388,7 @@
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
       <c r="X107" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>470</v>
       </c>
       <c r="Y107" s="9" t="s">
@@ -17419,7 +17410,7 @@
         <v>71</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9">
@@ -17427,7 +17418,7 @@
       </c>
       <c r="F108" s="9"/>
       <c r="G108" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -17448,7 +17439,7 @@
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
       <c r="X108" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="Y108" s="9" t="s">
@@ -17470,7 +17461,7 @@
         <v>72</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
@@ -17501,7 +17492,7 @@
       <c r="V109" s="9"/>
       <c r="W109" s="9"/>
       <c r="X109" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="Y109" s="9" t="s">
@@ -17523,7 +17514,7 @@
         <v>73</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
@@ -17550,7 +17541,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="9"/>
       <c r="X110" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="Y110" s="9" t="s">
@@ -17559,7 +17550,7 @@
       <c r="Z110" s="11"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC110" s="11"/>
       <c r="AD110" s="18" t="s">
@@ -17601,7 +17592,7 @@
       <c r="V111" s="9"/>
       <c r="W111" s="9"/>
       <c r="X111" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Y111" s="9" t="s">
@@ -17644,7 +17635,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="9"/>
       <c r="X112" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Y112" s="9" t="s">
@@ -17666,7 +17657,7 @@
         <v>75</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
@@ -17695,7 +17686,7 @@
       <c r="V113" s="9"/>
       <c r="W113" s="9"/>
       <c r="X113" s="10">
-        <f t="shared" ref="X113:X122" si="3">SUM(J113:W113)</f>
+        <f t="shared" ref="X113:X125" si="4">SUM(J113:W113)</f>
         <v>338.1</v>
       </c>
       <c r="Y113" s="9" t="s">
@@ -17744,7 +17735,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="9"/>
       <c r="X114" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Y114" s="9" t="s">
@@ -17766,7 +17757,7 @@
         <v>77</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
@@ -17793,7 +17784,7 @@
       <c r="V115" s="9"/>
       <c r="W115" s="9"/>
       <c r="X115" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Y115" s="9" t="s">
@@ -17842,7 +17833,7 @@
       <c r="V116" s="9"/>
       <c r="W116" s="9"/>
       <c r="X116" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Y116" s="9" t="s">
@@ -17864,7 +17855,7 @@
         <v>79</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -17891,7 +17882,7 @@
       <c r="V117" s="9"/>
       <c r="W117" s="9"/>
       <c r="X117" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Y117" s="9" t="s">
@@ -17940,7 +17931,7 @@
       <c r="V118" s="9"/>
       <c r="W118" s="9"/>
       <c r="X118" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Y118" s="9" t="s">
@@ -17989,7 +17980,7 @@
       <c r="V119" s="9"/>
       <c r="W119" s="9"/>
       <c r="X119" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="Y119" s="9" t="s">
@@ -18011,7 +18002,7 @@
         <v>82</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -18038,7 +18029,7 @@
       <c r="V120" s="9"/>
       <c r="W120" s="9"/>
       <c r="X120" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Y120" s="9" t="s">
@@ -18087,7 +18078,7 @@
       <c r="V121" s="9"/>
       <c r="W121" s="9"/>
       <c r="X121" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Y121" s="9" t="s">
@@ -18136,7 +18127,7 @@
       <c r="V122" s="9"/>
       <c r="W122" s="9"/>
       <c r="X122" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Y122" s="9" t="s">
@@ -18185,7 +18176,7 @@
       <c r="V123" s="9"/>
       <c r="W123" s="9"/>
       <c r="X123" s="10">
-        <f>SUM(J123:W123)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="Y123" s="9" t="s">
@@ -18205,15 +18196,15 @@
       </c>
       <c r="B124" s="51"/>
       <c r="C124" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -18234,7 +18225,7 @@
       <c r="V124" s="9"/>
       <c r="W124" s="9"/>
       <c r="X124" s="10">
-        <f>SUM(J124:W124)</f>
+        <f t="shared" si="4"/>
         <v>-405.3</v>
       </c>
       <c r="Y124" s="9" t="s">
@@ -18243,7 +18234,7 @@
       <c r="Z124" s="11"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC124" s="11"/>
       <c r="AD124" s="18" t="s">
@@ -18258,11 +18249,11 @@
       <c r="C125" s="52"/>
       <c r="D125" s="9"/>
       <c r="E125" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -18283,7 +18274,7 @@
       <c r="V125" s="9"/>
       <c r="W125" s="9"/>
       <c r="X125" s="10">
-        <f>SUM(J125:W125)</f>
+        <f t="shared" si="4"/>
         <v>-602.7</v>
       </c>
       <c r="Y125" s="9" t="s">
@@ -18292,7 +18283,7 @@
       <c r="Z125" s="11"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC125" s="11"/>
       <c r="AD125" s="18" t="s">
@@ -18307,11 +18298,11 @@
       <c r="C126" s="53"/>
       <c r="D126" s="9"/>
       <c r="E126" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -18332,7 +18323,7 @@
       <c r="V126" s="9"/>
       <c r="W126" s="9"/>
       <c r="X126" s="10">
-        <f t="shared" ref="X126:X135" si="4">SUM(J126:W126)</f>
+        <f t="shared" ref="X126:X135" si="5">SUM(J126:W126)</f>
         <v>806.1</v>
       </c>
       <c r="Y126" s="9" t="s">
@@ -18341,7 +18332,7 @@
       <c r="Z126" s="11"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AC126" s="11"/>
       <c r="AD126" s="18" t="s">
@@ -18356,7 +18347,7 @@
         <v>86</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
@@ -18387,7 +18378,7 @@
       <c r="V127" s="9"/>
       <c r="W127" s="9"/>
       <c r="X127" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="Y127" s="9" t="s">
@@ -18411,7 +18402,7 @@
         <v>87</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
@@ -18438,7 +18429,7 @@
       <c r="V128" s="9"/>
       <c r="W128" s="9"/>
       <c r="X128" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="Y128" s="9" t="s">
@@ -18462,7 +18453,7 @@
         <v>88</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
@@ -18491,7 +18482,7 @@
       <c r="V129" s="9"/>
       <c r="W129" s="9"/>
       <c r="X129" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>441</v>
       </c>
       <c r="Y129" s="9" t="s">
@@ -18536,7 +18527,7 @@
       <c r="V130" s="9"/>
       <c r="W130" s="9"/>
       <c r="X130" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>446.1</v>
       </c>
       <c r="Y130" s="9" t="s">
@@ -18558,7 +18549,7 @@
         <v>89</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
@@ -18589,7 +18580,7 @@
       <c r="V131" s="9"/>
       <c r="W131" s="9"/>
       <c r="X131" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>265</v>
       </c>
       <c r="Y131" s="9" t="s">
@@ -18613,7 +18604,7 @@
         <v>90</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
@@ -18644,7 +18635,7 @@
       <c r="V132" s="9"/>
       <c r="W132" s="9"/>
       <c r="X132" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>265</v>
       </c>
       <c r="Y132" s="9" t="s">
@@ -18668,7 +18659,7 @@
         <v>91</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
@@ -18699,7 +18690,7 @@
       <c r="V133" s="9"/>
       <c r="W133" s="9"/>
       <c r="X133" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>265</v>
       </c>
       <c r="Y133" s="9" t="s">
@@ -18723,7 +18714,7 @@
         <v>92</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
@@ -18750,7 +18741,7 @@
       <c r="V134" s="9"/>
       <c r="W134" s="9"/>
       <c r="X134" s="10">
-        <f t="shared" ref="X134:X144" si="5">SUM(J134:W134)</f>
+        <f t="shared" ref="X134:X150" si="6">SUM(J134:W134)</f>
         <v>27</v>
       </c>
       <c r="Y134" s="9" t="s">
@@ -18759,7 +18750,7 @@
       <c r="Z134" s="11"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC134" s="11"/>
       <c r="AD134" s="18" t="s">
@@ -18774,7 +18765,7 @@
         <v>93</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
@@ -18803,7 +18794,7 @@
       <c r="V135" s="9"/>
       <c r="W135" s="9"/>
       <c r="X135" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="Y135" s="9" t="s">
@@ -18825,7 +18816,7 @@
         <v>94</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
@@ -18852,7 +18843,7 @@
       <c r="V136" s="9"/>
       <c r="W136" s="9"/>
       <c r="X136" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Y136" s="9" t="s">
@@ -18901,7 +18892,7 @@
       <c r="V137" s="9"/>
       <c r="W137" s="9"/>
       <c r="X137" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Y137" s="9" t="s">
@@ -18942,7 +18933,7 @@
       <c r="V138" s="9"/>
       <c r="W138" s="9"/>
       <c r="X138" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y138" s="9" t="s">
@@ -18983,7 +18974,7 @@
       <c r="V139" s="9"/>
       <c r="W139" s="9"/>
       <c r="X139" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y139" s="9" t="s">
@@ -19024,7 +19015,7 @@
       <c r="V140" s="9"/>
       <c r="W140" s="9"/>
       <c r="X140" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y140" s="9" t="s">
@@ -19065,7 +19056,7 @@
       <c r="V141" s="9"/>
       <c r="W141" s="9"/>
       <c r="X141" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y141" s="9" t="s">
@@ -19106,7 +19097,7 @@
       <c r="V142" s="9"/>
       <c r="W142" s="9"/>
       <c r="X142" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y142" s="9" t="s">
@@ -19147,7 +19138,7 @@
       <c r="V143" s="9"/>
       <c r="W143" s="9"/>
       <c r="X143" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y143" s="9" t="s">
@@ -19188,7 +19179,7 @@
       <c r="V144" s="9"/>
       <c r="W144" s="9"/>
       <c r="X144" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y144" s="9" t="s">
@@ -19229,7 +19220,7 @@
       <c r="V145" s="9"/>
       <c r="W145" s="9"/>
       <c r="X145" s="10">
-        <f>SUM(J145:W145)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y145" s="9" t="s">
@@ -19270,7 +19261,7 @@
       <c r="V146" s="9"/>
       <c r="W146" s="9"/>
       <c r="X146" s="10">
-        <f>SUM(J146:W146)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y146" s="9" t="s">
@@ -19311,7 +19302,7 @@
       <c r="V147" s="9"/>
       <c r="W147" s="9"/>
       <c r="X147" s="10">
-        <f>SUM(J147:W147)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y147" s="9" t="s">
@@ -19352,7 +19343,7 @@
       <c r="V148" s="9"/>
       <c r="W148" s="9"/>
       <c r="X148" s="10">
-        <f>SUM(J148:W148)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y148" s="9" t="s">
@@ -19393,7 +19384,7 @@
       <c r="V149" s="9"/>
       <c r="W149" s="9"/>
       <c r="X149" s="10">
-        <f>SUM(J149:W149)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y149" s="9" t="s">
@@ -19434,7 +19425,7 @@
       <c r="V150" s="77"/>
       <c r="W150" s="9"/>
       <c r="X150" s="10">
-        <f>SUM(J150:W150)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y150" s="9" t="s">
@@ -19470,63 +19461,63 @@
       <c r="H151" s="9"/>
       <c r="I151" s="18"/>
       <c r="J151" s="10">
-        <f t="shared" ref="J151:X151" si="6">SUBTOTAL(9,J4:J150)</f>
+        <f t="shared" ref="J151:X151" si="7">SUBTOTAL(9,J4:J150)</f>
         <v>56.9999999999999</v>
       </c>
       <c r="K151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2036</v>
       </c>
       <c r="L151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17439.2</v>
       </c>
       <c r="M151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1937</v>
       </c>
       <c r="N151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2788</v>
       </c>
       <c r="O151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8789</v>
       </c>
       <c r="P151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2920</v>
       </c>
       <c r="Q151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="R151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1571</v>
       </c>
       <c r="S151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="T151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>578</v>
       </c>
       <c r="U151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>197</v>
       </c>
       <c r="V151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="W151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16960</v>
       </c>
       <c r="X151" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>55342.2</v>
       </c>
       <c r="Y151" s="9" t="s">
@@ -19659,15 +19650,15 @@
       <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="12.7583333333333" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.7583333333333" style="24" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="12.7583333333333" style="24" customWidth="1"/>
-    <col min="9" max="11" width="15.2583333333333" style="24" customWidth="1"/>
-    <col min="12" max="12" width="12.8166666666667" style="25"/>
+    <col min="1" max="3" width="12.7545454545455" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.7545454545455" style="24" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="12.7545454545455" style="24" customWidth="1"/>
+    <col min="9" max="11" width="15.2545454545455" style="24" customWidth="1"/>
+    <col min="12" max="12" width="12.8181818181818" style="25"/>
     <col min="13" max="13" width="16" style="24" customWidth="1"/>
-    <col min="14" max="14" width="12.8166666666667" style="24"/>
+    <col min="14" max="14" width="12.8181818181818" style="24"/>
     <col min="15" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -19676,34 +19667,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>246</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="L1" s="25"/>
     </row>
@@ -19792,7 +19783,7 @@
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N3" s="36">
         <v>255</v>
@@ -19835,7 +19826,7 @@
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N4" s="38">
         <v>306</v>
@@ -19878,7 +19869,7 @@
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N5" s="38">
         <v>210</v>
@@ -19921,7 +19912,7 @@
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N6" s="38">
         <v>170</v>
@@ -19964,7 +19955,7 @@
       </c>
       <c r="L7" s="34"/>
       <c r="M7" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N7" s="38">
         <v>221</v>
@@ -20007,7 +19998,7 @@
       </c>
       <c r="L8" s="34"/>
       <c r="M8" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N8" s="40">
         <f>SUM(N3:N7)</f>
@@ -20918,20 +20909,20 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1272727272727" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="14.2583333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.975" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1272727272727" style="1" customWidth="1"/>
+    <col min="5" max="7" width="14.2545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1272727272727" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.9727272727273" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="56" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -20956,13 +20947,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>256</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>257</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>21</v>
